--- a/P2 AB-Test/material/符号检验净转化率.xlsx
+++ b/P2 AB-Test/material/符号检验净转化率.xlsx
@@ -22,7 +22,7 @@
     <t>实验组</t>
   </si>
   <si>
-    <t>净转换率是否降低</t>
+    <t>净转换率是否不降低</t>
   </si>
 </sst>
 </file>
@@ -30,8 +30,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -50,6 +50,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -59,29 +103,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,21 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,41 +142,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,31 +164,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,109 +215,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,61 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,26 +397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,38 +430,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +455,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +514,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,7 +980,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1005,7 +1005,7 @@
         <v>0.049562682</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>0.115923567</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1029,7 +1029,7 @@
         <v>0.089366516</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1041,7 +1041,7 @@
         <v>0.111245466</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1053,7 +1053,7 @@
         <v>0.112980769</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1065,7 +1065,7 @@
         <v>0.077411168</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -1077,7 +1077,7 @@
         <v>0.056410256</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1089,7 +1089,7 @@
         <v>0.095092025</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1101,7 +1101,7 @@
         <v>0.110473458</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1113,7 +1113,7 @@
         <v>0.113953488</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -1125,7 +1125,7 @@
         <v>0.082175926</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -1137,7 +1137,7 @@
         <v>0.087390762</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1149,7 +1149,7 @@
         <v>0.105919003</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -1161,7 +1161,7 @@
         <v>0.134863702</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1173,7 +1173,7 @@
         <v>0.121076233</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -1185,7 +1185,7 @@
         <v>0.145743146</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1197,7 +1197,7 @@
         <v>0.154345006</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1209,7 +1209,7 @@
         <v>0.163043478</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1221,7 +1221,7 @@
         <v>0.132049519</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -1233,7 +1233,7 @@
         <v>0.092032967</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1245,7 +1245,7 @@
         <v>0.170360111</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -1257,7 +1257,7 @@
         <v>0.143884892</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -1269,7 +1269,7 @@
         <v>0.142265193</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3"/>
     </row>
